--- a/resources/xander-zemi_2018_grades（III）.xlsx
+++ b/resources/xander-zemi_2018_grades（III）.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xkrieg/Dropbox/Research/hyogen_helper/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0D9174D3-6F0E-9F45-8372-745ABBF7890E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC0A473-66E6-2947-8713-16FC74A24FBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="1840" windowWidth="23840" windowHeight="13000"/>
+    <workbookView xWindow="31800" yWindow="2120" windowWidth="23840" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xander-zemi_2018_grades（III）" sheetId="1" r:id="rId1"/>
@@ -304,16 +304,16 @@
     <t>topic_05</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1147,11 +1147,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H2">
         <f>SUM(J2:X2)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
         <v>94</v>
@@ -1260,6 +1260,9 @@
         <v>3</v>
       </c>
       <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
         <v>3</v>
       </c>
     </row>
@@ -1281,7 +1284,7 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H15" si="0">SUM(J3:X3)</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
         <v>95</v>
@@ -1296,6 +1299,9 @@
         <v>3</v>
       </c>
       <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
         <v>3</v>
       </c>
     </row>
@@ -1317,7 +1323,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
@@ -1326,6 +1332,9 @@
         <v>60</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
     </row>
@@ -1347,7 +1356,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
         <v>94</v>
@@ -1356,6 +1365,9 @@
         <v>60</v>
       </c>
       <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
     </row>
@@ -1407,7 +1419,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
@@ -1419,6 +1431,9 @@
         <v>3</v>
       </c>
       <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
         <v>3</v>
       </c>
     </row>
@@ -1440,7 +1455,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
         <v>94</v>
@@ -1452,6 +1467,9 @@
         <v>3</v>
       </c>
       <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
         <v>3</v>
       </c>
     </row>
@@ -1473,7 +1491,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
         <v>94</v>
@@ -1482,6 +1500,9 @@
         <v>60</v>
       </c>
       <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="N9">
         <v>3</v>
       </c>
     </row>
@@ -1503,7 +1524,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
         <v>94</v>
@@ -1515,6 +1536,9 @@
         <v>3</v>
       </c>
       <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
         <v>3</v>
       </c>
     </row>
@@ -1536,7 +1560,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
         <v>95</v>
@@ -1551,6 +1575,9 @@
         <v>3</v>
       </c>
       <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
         <v>3</v>
       </c>
     </row>
@@ -1572,7 +1599,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
         <v>94</v>
@@ -1584,6 +1611,9 @@
         <v>3</v>
       </c>
       <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
         <v>3</v>
       </c>
     </row>
@@ -1605,7 +1635,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
         <v>94</v>
@@ -1617,6 +1647,9 @@
         <v>3</v>
       </c>
       <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
         <v>3</v>
       </c>
     </row>
@@ -1668,7 +1701,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
         <v>95</v>
@@ -1683,6 +1716,9 @@
         <v>3</v>
       </c>
       <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
         <v>3</v>
       </c>
     </row>
